--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13245" windowHeight="6075"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16185" windowHeight="5910"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,6 @@
   <calcPr calcId="0" concurrentCalc="0"/>
   <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -26,59 +23,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Nombre</t>
   </si>
   <si>
-    <t>90500084Y</t>
-  </si>
-  <si>
-    <t>19160962F</t>
-  </si>
-  <si>
-    <t>09940449X</t>
-  </si>
-  <si>
-    <t>C/ Federico García Lorca 2</t>
-  </si>
-  <si>
-    <t>C/ Real Oviedo 2</t>
-  </si>
-  <si>
-    <t>Av. De la Constitución 8</t>
-  </si>
-  <si>
-    <t>Apellidos</t>
-  </si>
-  <si>
     <t>Juan</t>
   </si>
   <si>
-    <t>Torres Pardo</t>
-  </si>
-  <si>
     <t>Luis</t>
   </si>
   <si>
-    <t>López Fernando</t>
-  </si>
-  <si>
     <t>Ana</t>
   </si>
   <si>
-    <t>DNI</t>
-  </si>
-  <si>
-    <t>Fecha nacimiento</t>
-  </si>
-  <si>
-    <t>Nacionalidad</t>
-  </si>
-  <si>
-    <t>Español</t>
-  </si>
-  <si>
     <t>Correo electrónico</t>
   </si>
   <si>
@@ -91,13 +49,25 @@
     <t>ana@example.com</t>
   </si>
   <si>
-    <t>Dirección postal</t>
+    <t>Localizacion</t>
+  </si>
+  <si>
+    <t>105.70.56</t>
+  </si>
+  <si>
+    <t>109.8.9</t>
+  </si>
+  <si>
+    <t>Identificador</t>
+  </si>
+  <si>
+    <t>Tipo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,9 +109,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -203,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,7 +208,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,7 +385,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -425,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,92 +411,69 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2">
-        <v>31330</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2">
-        <v>25629</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
         <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3">
-        <v>21916</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4">
         <v>3</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PabloD\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12900" windowHeight="3480"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Nombre</t>
   </si>
@@ -69,6 +65,57 @@
   </si>
   <si>
     <t>Pablo Díaz</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>59019237X</t>
+  </si>
+  <si>
+    <t>57104958S</t>
+  </si>
+  <si>
+    <t>10573947Y</t>
+  </si>
+  <si>
+    <t>58429367Y</t>
+  </si>
+  <si>
+    <t>sensor1@sensor.com</t>
+  </si>
+  <si>
+    <t>102.00.1</t>
+  </si>
+  <si>
+    <t>Sensor1</t>
+  </si>
+  <si>
+    <t>Sensor2</t>
+  </si>
+  <si>
+    <t>999.1.120</t>
+  </si>
+  <si>
+    <t>sensor2@sensor.com</t>
+  </si>
+  <si>
+    <t>EntityX100</t>
+  </si>
+  <si>
+    <t>entity@entity.com</t>
+  </si>
+  <si>
+    <t>192.168.0.25</t>
+  </si>
+  <si>
+    <t>Entity1</t>
   </si>
 </sst>
 </file>
@@ -113,9 +160,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -431,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +498,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -466,11 +515,11 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -483,11 +532,11 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -500,11 +549,11 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -514,11 +563,62 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2">
+        <v>19800</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -527,6 +627,9 @@
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12900" windowHeight="3480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13035" windowHeight="2700"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Nombre</t>
   </si>
@@ -116,6 +116,21 @@
   </si>
   <si>
     <t>Entity1</t>
+  </si>
+  <si>
+    <t>Sin email</t>
+  </si>
+  <si>
+    <t>100.0.11</t>
+  </si>
+  <si>
+    <t>1111111X</t>
+  </si>
+  <si>
+    <t>Pepe</t>
+  </si>
+  <si>
+    <t>21487463Y</t>
   </si>
 </sst>
 </file>
@@ -480,15 +495,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,131 +520,160 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>3000</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2">
-        <v>19800</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2">
+        <v>19800</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="C2" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
